--- a/data/trans_orig/P51_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>6914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3030</v>
+        <v>2877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15332</v>
+        <v>14873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03045643608042739</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01334505496725671</v>
+        <v>0.01267457454819033</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0675361533558167</v>
+        <v>0.06551635360363574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -763,19 +763,19 @@
         <v>7254</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3032</v>
+        <v>2906</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15150</v>
+        <v>14889</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07583073028535199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0316939464704823</v>
+        <v>0.03037697494366189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1583662074162889</v>
+        <v>0.1556424847536849</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -784,19 +784,19 @@
         <v>14168</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7169</v>
+        <v>7908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22705</v>
+        <v>24310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0439085504437981</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02221671772537968</v>
+        <v>0.02450823701338441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07036412016752581</v>
+        <v>0.07533795345027761</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6205</v>
+        <v>6597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007842488817892169</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02733432057570061</v>
+        <v>0.02906084220730665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8033</v>
+        <v>7286</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02300362909574324</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08396587269588678</v>
+        <v>0.07616485838343631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -855,19 +855,19 @@
         <v>3981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10060</v>
+        <v>9978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01233731119409617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003238403700807378</v>
+        <v>0.003202417306226553</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03117660307282233</v>
+        <v>0.03092301772220786</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>7722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3761</v>
+        <v>3631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14771</v>
+        <v>14640</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03401560972826297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01656846083231292</v>
+        <v>0.01599413667714387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06506574241801184</v>
+        <v>0.06448726162525809</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6889</v>
+        <v>7708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02181380718892631</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07201631621730366</v>
+        <v>0.08057510637536791</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -926,19 +926,19 @@
         <v>9809</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4972</v>
+        <v>4848</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17449</v>
+        <v>16832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03039814203924249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0154082663032105</v>
+        <v>0.01502499462401064</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0540763253838312</v>
+        <v>0.05216469554472688</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>210598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200932</v>
+        <v>200691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217285</v>
+        <v>216959</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9276854653734175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8851068799457362</v>
+        <v>0.8840457185838561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9571435642546661</v>
+        <v>0.955705572720547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -976,19 +976,19 @@
         <v>84122</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76510</v>
+        <v>76025</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89868</v>
+        <v>90320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8793518334299785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7997781238560983</v>
+        <v>0.794710494117731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.939416033251791</v>
+        <v>0.9441357110569998</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -997,19 +997,19 @@
         <v>294720</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>282841</v>
+        <v>283697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>304017</v>
+        <v>304725</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9133559963228632</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8765432869945511</v>
+        <v>0.8791952123547627</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9421691272762347</v>
+        <v>0.9443639924306816</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>4057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11741</v>
+        <v>12653</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02233973947670286</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005353255785013853</v>
+        <v>0.00536951615019538</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06465732598463776</v>
+        <v>0.0696749207615279</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1122,19 +1122,19 @@
         <v>4214</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>998</v>
+        <v>1105</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9358</v>
+        <v>10392</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04361128138665474</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01033241665241704</v>
+        <v>0.01144045425493849</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09686137378839554</v>
+        <v>0.1075562973014667</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1143,19 +1143,19 @@
         <v>8270</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4037</v>
+        <v>3193</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16414</v>
+        <v>16543</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02972679300793692</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01450948814711241</v>
+        <v>0.01147751729924864</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0589986450068869</v>
+        <v>0.05946255283632901</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>8280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3673</v>
+        <v>3681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16562</v>
+        <v>16733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04559701352446047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02022862386921241</v>
+        <v>0.02027132682702848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09120494696678312</v>
+        <v>0.09214406592893999</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4761</v>
+        <v>4711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009624865548294845</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04927468755897974</v>
+        <v>0.04876155898606391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1214,19 +1214,19 @@
         <v>9210</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4394</v>
+        <v>4567</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17755</v>
+        <v>17762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03310482166275592</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01579369687427797</v>
+        <v>0.01641625808606405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06382023399188942</v>
+        <v>0.06384451183852112</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>5755</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2711</v>
+        <v>1949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11446</v>
+        <v>11395</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03168967613262835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01493023416020386</v>
+        <v>0.01073502219570346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06302906492531715</v>
+        <v>0.06275073434724138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>3719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>946</v>
+        <v>987</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8472</v>
+        <v>8749</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03849537359648045</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009791685570797711</v>
+        <v>0.01021149343627672</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08768919084032573</v>
+        <v>0.09055181641390045</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1285,19 +1285,19 @@
         <v>9474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4757</v>
+        <v>4721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16977</v>
+        <v>16254</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03405311794120446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01709964894282642</v>
+        <v>0.01697013629633548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0610238095317217</v>
+        <v>0.05842509901755923</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>163503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>153667</v>
+        <v>152866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>171022</v>
+        <v>170676</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9003735708662083</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.84620759496342</v>
+        <v>0.8417975682962862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9417771637561442</v>
+        <v>0.9398743419194309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1335,19 +1335,19 @@
         <v>87752</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>80825</v>
+        <v>80710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>92597</v>
+        <v>92330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9082684794685699</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8365630155338964</v>
+        <v>0.8353732921276064</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9584172241102229</v>
+        <v>0.9556523166578653</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>243</v>
@@ -1356,19 +1356,19 @@
         <v>251256</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>240300</v>
+        <v>239760</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>260089</v>
+        <v>259993</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9031152673881027</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8637370183129679</v>
+        <v>0.861793655314526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9348653545471302</v>
+        <v>0.9345194798450401</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>5088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1974</v>
+        <v>1942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11746</v>
+        <v>11505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02766676474637639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01073181292350355</v>
+        <v>0.01056033368235558</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06386708689279097</v>
+        <v>0.06255527456279537</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1481,19 +1481,19 @@
         <v>5976</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2032</v>
+        <v>2078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11679</v>
+        <v>11551</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08637160458493037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02936525489684248</v>
+        <v>0.03002882985256839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1687908259347488</v>
+        <v>0.1669502112075952</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1502,19 +1502,19 @@
         <v>11065</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6015</v>
+        <v>5965</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19655</v>
+        <v>19128</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04371460915434527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02376441066777418</v>
+        <v>0.02356887244669326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07765635157123835</v>
+        <v>0.07557314270169666</v>
       </c>
     </row>
     <row r="15">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6468</v>
+        <v>6334</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01032076989918343</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03516679323217747</v>
+        <v>0.03444114590679956</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6549</v>
+        <v>6288</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.007499433362570133</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02587259591432568</v>
+        <v>0.02484291837578172</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>7186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3026</v>
+        <v>3006</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13881</v>
+        <v>14239</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03907123120031641</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01645180455998209</v>
+        <v>0.01634234719648007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07547506259731902</v>
+        <v>0.07742178685394455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1615,19 +1615,19 @@
         <v>3184</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8686</v>
+        <v>8711</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04602395885861293</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01442012837885656</v>
+        <v>0.01410910634149254</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1255396379219595</v>
+        <v>0.1258993729668264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1636,19 +1636,19 @@
         <v>10370</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5310</v>
+        <v>5171</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17917</v>
+        <v>17439</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04097186310695603</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02097853158399266</v>
+        <v>0.02042946086416758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07078673987641984</v>
+        <v>0.06890126293092849</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>169745</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161362</v>
+        <v>161329</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176275</v>
+        <v>175928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9229412341541238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8773605416881181</v>
+        <v>0.8771814621425539</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9584495462358786</v>
+        <v>0.9565601782369655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -1686,19 +1686,19 @@
         <v>60030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53011</v>
+        <v>53233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64341</v>
+        <v>64859</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8676044365564567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7661553173924922</v>
+        <v>0.7693577733677578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9299084308095042</v>
+        <v>0.937396012321157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>219</v>
@@ -1707,19 +1707,19 @@
         <v>229775</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218466</v>
+        <v>219868</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237673</v>
+        <v>238238</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9078140943761286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8631327404323031</v>
+        <v>0.868671836861343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9390190731483976</v>
+        <v>0.9412513316147662</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>5222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1806</v>
+        <v>986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13894</v>
+        <v>13640</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03873727486389254</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01339598428877729</v>
+        <v>0.007314041159465353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1030661675714567</v>
+        <v>0.1011809428835824</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9156</v>
+        <v>8599</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03713985176425807</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1822162066974518</v>
+        <v>0.1711166767705356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1853,19 +1853,19 @@
         <v>7088</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2330</v>
+        <v>2822</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17215</v>
+        <v>17049</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03830351048101461</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01258865099919164</v>
+        <v>0.0152485831586393</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09302604464776372</v>
+        <v>0.09212880854829268</v>
       </c>
     </row>
     <row r="20">
@@ -1929,19 +1929,19 @@
         <v>3775</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8749</v>
+        <v>8453</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02800496822722601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00690114675032893</v>
+        <v>0.007009257496963166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06490261990445741</v>
+        <v>0.06270525655405733</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6966</v>
+        <v>8183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03463598246641421</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1386353709366426</v>
+        <v>0.1628451464329614</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1971,19 +1971,19 @@
         <v>5516</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1989</v>
+        <v>1929</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13462</v>
+        <v>12748</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02980555430863076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0107472903801954</v>
+        <v>0.01042566227294163</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07274680641235307</v>
+        <v>0.06888708064801925</v>
       </c>
     </row>
     <row r="22">
@@ -2000,19 +2000,19 @@
         <v>125808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116998</v>
+        <v>116915</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130783</v>
+        <v>130759</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9332577569088815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8679057090605173</v>
+        <v>0.8672921165805928</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9701629889360625</v>
+        <v>0.9699869811670114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -2021,7 +2021,7 @@
         <v>46643</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38386</v>
+        <v>38834</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>50250</v>
@@ -2030,7 +2030,7 @@
         <v>0.9282241657693278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7638996100141164</v>
+        <v>0.7728073245906146</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2042,19 +2042,19 @@
         <v>172451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>162530</v>
+        <v>161360</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179174</v>
+        <v>178636</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9318909352103546</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8782810047223384</v>
+        <v>0.8719576154264427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9682188723135565</v>
+        <v>0.9653115796304971</v>
       </c>
     </row>
     <row r="23">
@@ -2146,19 +2146,19 @@
         <v>21281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12938</v>
+        <v>12936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32814</v>
+        <v>32320</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02925929974412279</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01778767892144742</v>
+        <v>0.01778519476137323</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04511588563101388</v>
+        <v>0.0444359082950278</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2167,19 +2167,19 @@
         <v>19310</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11159</v>
+        <v>11285</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29709</v>
+        <v>30877</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0619472373951571</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03579953240341792</v>
+        <v>0.03620186201060324</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09530540852171843</v>
+        <v>0.0990541852826826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -2188,19 +2188,19 @@
         <v>40591</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28563</v>
+        <v>27873</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>54383</v>
+        <v>54069</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0390658319140671</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02748926057906577</v>
+        <v>0.02682537711215468</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05233868684436459</v>
+        <v>0.05203660364213653</v>
       </c>
     </row>
     <row r="25">
@@ -2217,19 +2217,19 @@
         <v>11959</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6595</v>
+        <v>6031</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21917</v>
+        <v>20151</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01644188417885538</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009067095522534072</v>
+        <v>0.008292164060470522</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03013355764795997</v>
+        <v>0.02770605371617146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2238,19 +2238,19 @@
         <v>3131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9248</v>
+        <v>9298</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01004277032928511</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002975582385292508</v>
+        <v>0.002983110452557557</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02966777836024976</v>
+        <v>0.029826526969922</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2259,19 +2259,19 @@
         <v>15089</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8302</v>
+        <v>8581</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23619</v>
+        <v>23819</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01452212048819742</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007989817954668818</v>
+        <v>0.008258855533007552</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02273108050367127</v>
+        <v>0.02292413494413838</v>
       </c>
     </row>
     <row r="26">
@@ -2288,19 +2288,19 @@
         <v>24438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16256</v>
+        <v>16239</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34040</v>
+        <v>35084</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03359925296180298</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02234998538320532</v>
+        <v>0.02232687155838324</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04680083053581986</v>
+        <v>0.04823611011486395</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2309,19 +2309,19 @@
         <v>10731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5549</v>
+        <v>5468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19658</v>
+        <v>18718</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03442487371222169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01779972935605053</v>
+        <v>0.01754161924211674</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0630628138134694</v>
+        <v>0.06004872554053629</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -2330,19 +2330,19 @@
         <v>35169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25405</v>
+        <v>24186</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47972</v>
+        <v>49275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03384694299766851</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02445011854874422</v>
+        <v>0.0232774491647706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04616908570585437</v>
+        <v>0.04742291882327479</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>669653</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>651864</v>
+        <v>654315</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>682654</v>
+        <v>683145</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9206995631152188</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8962410844558124</v>
+        <v>0.8996112846490211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9385741194904572</v>
+        <v>0.9392497536721562</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>264</v>
@@ -2380,19 +2380,19 @@
         <v>278548</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>266816</v>
+        <v>264251</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>289122</v>
+        <v>288397</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8935851185633361</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8559486581329642</v>
+        <v>0.8477178544754167</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9275047576803087</v>
+        <v>0.9251786659748352</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>901</v>
@@ -2401,19 +2401,19 @@
         <v>948202</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>928576</v>
+        <v>929124</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>965898</v>
+        <v>966830</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.912565104600067</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8936774887356476</v>
+        <v>0.8942041698844519</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9295963554693084</v>
+        <v>0.9304929121860608</v>
       </c>
     </row>
     <row r="28">
@@ -2745,19 +2745,19 @@
         <v>7883</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3787</v>
+        <v>3795</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16153</v>
+        <v>15344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03220526764952397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01547162131494215</v>
+        <v>0.01550657083736652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06599579801343847</v>
+        <v>0.06268962178950664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2766,19 +2766,19 @@
         <v>6521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2549</v>
+        <v>2687</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14671</v>
+        <v>14144</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04778925347033364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01868044506433424</v>
+        <v>0.01968874059113651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1075111908272946</v>
+        <v>0.1036526104819382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2787,19 +2787,19 @@
         <v>14404</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7427</v>
+        <v>7906</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23070</v>
+        <v>23804</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03778356173505994</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01948253677103465</v>
+        <v>0.02073964208336216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06051478026842753</v>
+        <v>0.0624408974585768</v>
       </c>
     </row>
     <row r="5">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6402</v>
+        <v>6451</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008479672543502589</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02615659958808855</v>
+        <v>0.02635633660203293</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6946</v>
+        <v>6968</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005444370295374349</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01822143260223694</v>
+        <v>0.01827831826092497</v>
       </c>
     </row>
     <row r="6">
@@ -2879,19 +2879,19 @@
         <v>5061</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1971</v>
+        <v>1958</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11400</v>
+        <v>11349</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02067520207453435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008053897399227378</v>
+        <v>0.00799868845681471</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04657595135718426</v>
+        <v>0.04636806410609614</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2900,19 +2900,19 @@
         <v>2854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7677</v>
+        <v>7639</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02091163390714227</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006619760954326428</v>
+        <v>0.006558294380550536</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05625587941208721</v>
+        <v>0.05598323929785277</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -2921,19 +2921,19 @@
         <v>7914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3049</v>
+        <v>3737</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13861</v>
+        <v>15169</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02075983294552167</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00799708801616217</v>
+        <v>0.009802951663563526</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03635917746884562</v>
+        <v>0.039790126913323</v>
       </c>
     </row>
     <row r="7">
@@ -2950,19 +2950,19 @@
         <v>229744</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>219462</v>
+        <v>220540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>235694</v>
+        <v>235892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9386398577324391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8966288798677516</v>
+        <v>0.9010331013179099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.962946963564127</v>
+        <v>0.9637574687095734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -2971,19 +2971,19 @@
         <v>127083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118693</v>
+        <v>119045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132346</v>
+        <v>131789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9312991126225241</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8698159757205141</v>
+        <v>0.8723946164486883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9698692423270887</v>
+        <v>0.965784100572279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>334</v>
@@ -2992,19 +2992,19 @@
         <v>356828</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>346439</v>
+        <v>346524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>365760</v>
+        <v>365420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9360122350240441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.90876037843406</v>
+        <v>0.9089838484501559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9594422850360952</v>
+        <v>0.9585510791035781</v>
       </c>
     </row>
     <row r="8">
@@ -3096,19 +3096,19 @@
         <v>3959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11048</v>
+        <v>9757</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01859004677727313</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004855031164608717</v>
+        <v>0.004838820834231376</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05187161311204413</v>
+        <v>0.0458095471421816</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3117,19 +3117,19 @@
         <v>6769</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2918</v>
+        <v>2968</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12365</v>
+        <v>13526</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05896434474429228</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02541805416931886</v>
+        <v>0.02585576289617859</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1077141775676655</v>
+        <v>0.1178261265470846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -3138,19 +3138,19 @@
         <v>10728</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5716</v>
+        <v>5819</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18117</v>
+        <v>19728</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03272992619047686</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01743732414605912</v>
+        <v>0.01775408934782425</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05527304985564214</v>
+        <v>0.0601860794130662</v>
       </c>
     </row>
     <row r="10">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5062</v>
+        <v>4997</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004727225409283354</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02376765744457416</v>
+        <v>0.02346169892449367</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4786</v>
+        <v>4655</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008094515033912427</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04168792608010002</v>
+        <v>0.04055210030251847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5899</v>
+        <v>7214</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005906516979392664</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01799825622951417</v>
+        <v>0.02201019642312251</v>
       </c>
     </row>
     <row r="11">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5725</v>
+        <v>5215</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004374064764844462</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02687770035552379</v>
+        <v>0.02448717011199746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4624</v>
+        <v>4646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002842180585187224</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01410662772008609</v>
+        <v>0.01417333641126674</v>
       </c>
     </row>
     <row r="12">
@@ -3301,19 +3301,19 @@
         <v>207086</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200714</v>
+        <v>200905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>210933</v>
+        <v>210951</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9723086630485991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9423894989558399</v>
+        <v>0.9432861003843654</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9903695275281479</v>
+        <v>0.9904557059822747</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -3322,19 +3322,19 @@
         <v>107096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100982</v>
+        <v>100306</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111219</v>
+        <v>110931</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9329411402217953</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8796777592071169</v>
+        <v>0.8737928429269132</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9688610540712808</v>
+        <v>0.9663516831457903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>302</v>
@@ -3343,19 +3343,19 @@
         <v>314182</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>305435</v>
+        <v>305182</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>319918</v>
+        <v>319956</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9585213762449433</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9318342140547917</v>
+        <v>0.9310621126480788</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.976020959583452</v>
+        <v>0.976134998561167</v>
       </c>
     </row>
     <row r="13">
@@ -3447,19 +3447,19 @@
         <v>3566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10212</v>
+        <v>9872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02066018495689938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005457451361304809</v>
+        <v>0.005500375248883505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05916969645108824</v>
+        <v>0.05719933403822688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>3566</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10337</v>
+        <v>10294</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01424583154233459</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00380879371548709</v>
+        <v>0.003763465955888918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04129891383830899</v>
+        <v>0.04112675836002418</v>
       </c>
     </row>
     <row r="15">
@@ -3557,19 +3557,19 @@
         <v>4716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10714</v>
+        <v>11406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02732317653329118</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007074090091089936</v>
+        <v>0.007179008676465233</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06207689756933637</v>
+        <v>0.06609083723617365</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6642</v>
+        <v>6747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02496726179878071</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08546816671752813</v>
+        <v>0.08682759965293245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3599,19 +3599,19 @@
         <v>6656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2383</v>
+        <v>2645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13305</v>
+        <v>13911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02659173730594368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009519668776499533</v>
+        <v>0.01056748066220718</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05315623116244349</v>
+        <v>0.05557887040078623</v>
       </c>
     </row>
     <row r="17">
@@ -3628,19 +3628,19 @@
         <v>164306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>155661</v>
+        <v>156715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169036</v>
+        <v>169209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9520166385098094</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.901926492115391</v>
+        <v>0.908037569987326</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9794235897987403</v>
+        <v>0.9804275434848327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -3649,7 +3649,7 @@
         <v>75770</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71068</v>
+        <v>70963</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>77710</v>
@@ -3658,7 +3658,7 @@
         <v>0.9750327382012193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9145318332824717</v>
+        <v>0.9131724003470686</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3670,19 +3670,19 @@
         <v>240075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>232407</v>
+        <v>231676</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>245688</v>
+        <v>245089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9591624311517217</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9285257074812219</v>
+        <v>0.9256059451049158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9815875438032244</v>
+        <v>0.9791918402105881</v>
       </c>
     </row>
     <row r="18">
@@ -3774,19 +3774,19 @@
         <v>3720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>937</v>
+        <v>985</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8723</v>
+        <v>8515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02964170453893595</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007466233182029078</v>
+        <v>0.007846009909052152</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06951578200703927</v>
+        <v>0.06785761677103365</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6465</v>
+        <v>6399</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02733396254211836</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09574511089917923</v>
+        <v>0.09477604630623368</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3816,19 +3816,19 @@
         <v>5565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1833</v>
+        <v>1860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10826</v>
+        <v>11231</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02883438968551719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009499328632887084</v>
+        <v>0.009635814201083174</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05609355191290503</v>
+        <v>0.05818737196679788</v>
       </c>
     </row>
     <row r="20">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5092</v>
+        <v>4559</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01474805333888016</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07541268607137344</v>
+        <v>0.06751786215137813</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4120</v>
+        <v>4956</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005159295335400989</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02134860054327636</v>
+        <v>0.02567714805250922</v>
       </c>
     </row>
     <row r="22">
@@ -3955,19 +3955,19 @@
         <v>121768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116765</v>
+        <v>116973</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>124551</v>
+        <v>124503</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.970358295461064</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9304842179929612</v>
+        <v>0.9321423832289693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9925337668179709</v>
+        <v>0.9921539900909478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -3976,19 +3976,19 @@
         <v>64678</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59909</v>
+        <v>59466</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66622</v>
+        <v>66614</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9579179841190015</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8872843839620564</v>
+        <v>0.880729981913484</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9867129767689307</v>
+        <v>0.9865899516906915</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>173</v>
@@ -3997,19 +3997,19 @@
         <v>186446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180340</v>
+        <v>179915</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190274</v>
+        <v>190293</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9660063149790818</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9343728268098043</v>
+        <v>0.9321682596135505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.985839833307234</v>
+        <v>0.9859383457244406</v>
       </c>
     </row>
     <row r="23">
@@ -4101,19 +4101,19 @@
         <v>19127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11923</v>
+        <v>10914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29748</v>
+        <v>29585</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02530674532616597</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01577525300694361</v>
+        <v>0.01444018556527835</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03935808149537657</v>
+        <v>0.0391428583106074</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -4122,19 +4122,19 @@
         <v>15136</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8645</v>
+        <v>7896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23338</v>
+        <v>23249</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03817476126463098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02180532415677143</v>
+        <v>0.01991435517335667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05886190997776118</v>
+        <v>0.05863704809755268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -4143,19 +4143,19 @@
         <v>34263</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>23832</v>
+        <v>23721</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46547</v>
+        <v>48229</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02973434010218495</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02068244677886276</v>
+        <v>0.02058608093612176</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04039431331342462</v>
+        <v>0.04185405228319546</v>
       </c>
     </row>
     <row r="25">
@@ -4172,19 +4172,19 @@
         <v>3082</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8911</v>
+        <v>8186</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004078121016989698</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00127696018126113</v>
+        <v>0.00127237715205874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01179045616549819</v>
+        <v>0.01083090080277239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4660</v>
+        <v>4666</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002343627688716554</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01175381633391922</v>
+        <v>0.01176780524162382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4214,19 +4214,19 @@
         <v>4012</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9281</v>
+        <v>9449</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003481320885871891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008802919754187027</v>
+        <v>0.0008762235913215855</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008054341684301785</v>
+        <v>0.008200064206864721</v>
       </c>
     </row>
     <row r="26">
@@ -4243,19 +4243,19 @@
         <v>10708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5199</v>
+        <v>5571</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18844</v>
+        <v>18617</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01416705156716564</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00687823405409543</v>
+        <v>0.007370712409720916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02493129894848998</v>
+        <v>0.02463163432607844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4264,19 +4264,19 @@
         <v>5790</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11750</v>
+        <v>12731</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01460228829059688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006980320840842502</v>
+        <v>0.00698388461145139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02963674859917787</v>
+        <v>0.03210960625003393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4285,19 +4285,19 @@
         <v>16497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10181</v>
+        <v>10030</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26573</v>
+        <v>26391</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01431680673161453</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008835065176804158</v>
+        <v>0.008704100850909478</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02306041832223721</v>
+        <v>0.02290254936689953</v>
       </c>
     </row>
     <row r="27">
@@ -4314,19 +4314,19 @@
         <v>722905</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>709520</v>
+        <v>709613</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>732633</v>
+        <v>732446</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9564480820896787</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9387392780146746</v>
+        <v>0.9388621069929035</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9693195162140473</v>
+        <v>0.9690722467495114</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>369</v>
@@ -4335,19 +4335,19 @@
         <v>374628</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>365008</v>
+        <v>365170</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>382248</v>
+        <v>383107</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9448793227560556</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9206173365991963</v>
+        <v>0.9210253227985549</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9640997589818088</v>
+        <v>0.9662665213908218</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1038</v>
@@ -4356,19 +4356,19 @@
         <v>1097532</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1081989</v>
+        <v>1081237</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1109747</v>
+        <v>1111375</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9524675322803287</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9389787913570509</v>
+        <v>0.9383262504404776</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9630675577410071</v>
+        <v>0.9644807585548532</v>
       </c>
     </row>
     <row r="28">
